--- a/pyfeng/data/sabr_benchmark.xlsx
+++ b/pyfeng/data/sabr_benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mega\Projects\pyfedev\pyfe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PyFENG\pyfeng\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49350BB8-83B7-46F2-86B6-62237DA3C086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AAC132-A74F-4F57-9743-AA43A0748417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" tabRatio="743" xr2:uid="{CFD8C97F-677E-4081-BE35-9D7DB797B3CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="743" firstSheet="1" activeTab="1" xr2:uid="{CFD8C97F-677E-4081-BE35-9D7DB797B3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Param" sheetId="7" r:id="rId1"/>
@@ -85,10 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
-  <si>
-    <t>K</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>sigma</t>
   </si>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>Reference</t>
-  </si>
-  <si>
-    <t>k</t>
   </si>
   <si>
     <t>P FDM</t>
@@ -199,6 +193,9 @@
   </si>
   <si>
     <t>IV</t>
+  </si>
+  <si>
+    <t>Strike</t>
   </si>
 </sst>
 </file>
@@ -572,42 +569,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584B610-149E-4DFB-B94E-F604CBCB4976}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1053,7 +1050,7 @@
         <v>IV MC</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1148,7 +1145,7 @@
         <v>IV MC2</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1179,7 +1176,7 @@
         <v>IV MC2</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -1209,7 +1206,7 @@
         <v>P FDM</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1239,7 +1236,7 @@
         <v>P ADI</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1269,7 +1266,7 @@
         <v>P ADI</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1299,7 +1296,7 @@
         <v>P New</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1329,7 +1326,7 @@
         <v>P New</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1359,7 +1356,7 @@
         <v>P</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1389,7 +1386,7 @@
         <v>P</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1419,7 +1416,7 @@
         <v>P</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1449,7 +1446,7 @@
         <v>P</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1479,7 +1476,7 @@
         <v>P</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1509,7 +1506,7 @@
         <v>P</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1528,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>
@@ -2228,7 +2225,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>
@@ -2925,7 +2922,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>
@@ -3622,7 +3619,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>
@@ -4319,7 +4316,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>
@@ -5016,7 +5013,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>
@@ -5713,7 +5710,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>
@@ -6410,7 +6407,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>
@@ -7107,10 +7104,10 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" t="str">
         <f>'1'!B1</f>
@@ -7859,7 +7856,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7867,10 +7864,10 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" t="str">
         <f>'1'!B1</f>
@@ -8618,30 +8615,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5761A8C7-5DBE-4514-94EE-A5933B58C928}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
       <c r="G1" t="str">
         <f>"Bps Diff " &amp; C1</f>
@@ -9309,23 +9304,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD47339-9F2E-4E49-9410-2DB4FA8DAF88}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.4</v>
+        <f>0.4*0.05</f>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="B2">
         <v>4.5600000000000002E-2</v>
@@ -9333,7 +9327,8 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.8</v>
+        <f>0.8*0.05</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="B3">
         <v>4.1399999999999999E-2</v>
@@ -9341,7 +9336,8 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1</v>
+        <f>1*0.05</f>
+        <v>0.05</v>
       </c>
       <c r="B4">
         <v>3.9399999999999998E-2</v>
@@ -9349,7 +9345,8 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1.2</v>
+        <f>1.2*0.05</f>
+        <v>0.06</v>
       </c>
       <c r="B5">
         <v>3.7499999999999999E-2</v>
@@ -9357,7 +9354,8 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1.6</v>
+        <f>1.6*0.05</f>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="B6">
         <v>3.39E-2</v>
@@ -9365,7 +9363,8 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2</v>
+        <f>2*0.05</f>
+        <v>0.1</v>
       </c>
       <c r="B7">
         <v>3.0599999999999999E-2</v>
@@ -9380,24 +9379,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64155F4D-7611-41E4-AFB2-52DF5A0EB8FE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>EXP(-0.1*SQRT(2))</f>
-        <v>0.86812344539458486</v>
+        <f>EXP(-0.1*SQRT(2))*0.5</f>
+        <v>0.43406172269729243</v>
       </c>
       <c r="B2" s="1">
         <v>0.22138319683086599</v>
@@ -9405,7 +9402,8 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <f>1*0.5</f>
+        <v>0.5</v>
       </c>
       <c r="B3" s="1">
         <v>0.193836689413803</v>
@@ -9413,8 +9411,8 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f>EXP(0.1*SQRT(2))</f>
-        <v>1.151909910168909</v>
+        <f>EXP(0.1*SQRT(2))*0.5</f>
+        <v>0.57595495508445449</v>
       </c>
       <c r="B4" s="1">
         <v>0.16624081465323101</v>
@@ -9429,24 +9427,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F5BC23-C7B1-4B5D-ADA1-0C87B5EACF61}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>EXP(-0.1*SQRT(10))</f>
-        <v>0.72889341411002451</v>
+        <f>EXP(-0.1*SQRT(10))*0.07</f>
+        <v>5.1022538987701718E-2</v>
       </c>
       <c r="B2">
         <v>5.2450313614407003E-2</v>
@@ -9454,7 +9450,8 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <f>1*0.07</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B3">
         <v>4.6585753491306003E-2</v>
@@ -9462,8 +9459,8 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f>EXP(0.1*SQRT(10))</f>
-        <v>1.3719427019669197</v>
+        <f>EXP(0.1*SQRT(10))*0.07</f>
+        <v>9.6035989137684394E-2</v>
       </c>
       <c r="B4">
         <v>3.9291470612989002E-2</v>
@@ -9484,31 +9481,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -9868,39 +9865,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785B06B-5DDF-42E6-8931-E37266C6013C}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -10231,21 +10226,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125405ED-0F44-44E1-94F2-2AE9C9119787}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -10334,21 +10327,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBB38B7-9DF8-4B4C-AEF5-D2A443839C1C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -10437,21 +10428,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A47969C-C7D0-4D80-A3B9-BABF8F1B5856}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -10540,21 +10529,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E9C23F-A52B-4FEC-B8DE-ED7D3C563DC9}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -10643,21 +10630,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23273D0B-374D-4BAB-9619-5DA63B74123A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -10746,16 +10731,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1853C948-7EF5-48C1-BC46-A0BD5A0CA194}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>
@@ -11444,20 +11427,20 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -11555,7 +11538,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>
@@ -12252,7 +12235,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>
@@ -12949,7 +12932,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>
@@ -13637,16 +13620,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4134D2-54E5-4470-946C-B42F18CBD0D8}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>
@@ -14343,7 +14324,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>
@@ -15040,7 +15021,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
-        <v>K</v>
+        <v>Strike</v>
       </c>
       <c r="B1" t="str">
         <f>'1'!B1</f>

--- a/pyfeng/data/sabr_benchmark.xlsx
+++ b/pyfeng/data/sabr_benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PyFENG\pyfeng\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AB8831-753F-44B7-96A9-439983A696AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6680F052-71AC-4AD4-851D-A626CE9F2B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20376" windowHeight="16560" tabRatio="743" xr2:uid="{CFD8C97F-677E-4081-BE35-9D7DB797B3CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="743" xr2:uid="{CFD8C97F-677E-4081-BE35-9D7DB797B3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Param" sheetId="7" r:id="rId1"/>
@@ -43,9 +43,10 @@
     <sheet name="27" sheetId="30" r:id="rId28"/>
     <sheet name="28" sheetId="25" r:id="rId29"/>
     <sheet name="29" sheetId="26" r:id="rId30"/>
-    <sheet name="30" sheetId="31" r:id="rId31"/>
-    <sheet name="31" sheetId="32" r:id="rId32"/>
-    <sheet name="32" sheetId="33" r:id="rId33"/>
+    <sheet name="30" sheetId="34" r:id="rId31"/>
+    <sheet name="31" sheetId="31" r:id="rId32"/>
+    <sheet name="32" sheetId="32" r:id="rId33"/>
+    <sheet name="33" sheetId="33" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t>sigma</t>
   </si>
@@ -204,13 +205,19 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Case 2, Choi &amp; Seo (2023)</t>
+    <t>Hagan</t>
   </si>
   <si>
-    <t>Case 3, Choi &amp; Seo (2023)</t>
+    <t>Case 2A in Choi &amp; Seo (2024). Same as Case 23 rescaled by 10000</t>
   </si>
   <si>
-    <t>Case 1, Choi &amp; Seo (2023). Same as Case 23 rescaled by 10000</t>
+    <t>Case 2B in Choi &amp; Seo (2024)</t>
+  </si>
+  <si>
+    <t>Case 2C in Choi &amp; Seo (2024)</t>
+  </si>
+  <si>
+    <t>Case 1 in Choi &amp; Seo (2024). Table 3 and 4 in Choi, Liu &amp; Seo (2019) rescaled by 10000</t>
   </si>
 </sst>
 </file>
@@ -579,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584B610-149E-4DFB-B94E-F604CBCB4976}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -588,9 +595,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -619,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -650,7 +657,7 @@
         <v>Table 1 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A19" si="1">A2+1</f>
         <v>2</v>
@@ -682,7 +689,7 @@
         <v>Table 2 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -714,7 +721,7 @@
         <v>Table 3 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -746,7 +753,7 @@
         <v>Table 4 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -778,7 +785,7 @@
         <v>Table 5 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -810,7 +817,7 @@
         <v>Table 6 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -842,7 +849,7 @@
         <v>Table 7 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -874,7 +881,7 @@
         <v>Table 8 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -906,7 +913,7 @@
         <v>Table 9 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -938,7 +945,7 @@
         <v>Table 10 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -970,7 +977,7 @@
         <v>Table 11 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1002,7 +1009,7 @@
         <v>Table 12 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1034,7 +1041,7 @@
         <v>Table 13 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1065,7 +1072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1097,7 +1104,7 @@
         <v>Table 15 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1129,7 +1136,7 @@
         <v>Table 16 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1160,7 +1167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1191,7 +1198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1221,7 +1228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1251,7 +1258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1281,7 +1288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1311,7 +1318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1341,7 +1348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1371,7 +1378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1401,7 +1408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1431,7 +1438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1461,7 +1468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1491,7 +1498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1521,36 +1528,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>100</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.5</v>
+        <v>69.118399999999994</v>
+      </c>
+      <c r="C31">
+        <v>0.22372443</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1.6968770000000001E-2</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>350</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>37</v>
+        <v>300</v>
+      </c>
+      <c r="H31" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="H31" ca="1">INDIRECT(A31&amp;"!$B$1")</f>
+        <v>Price</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1561,7 +1569,7 @@
         <v>0.5</v>
       </c>
       <c r="D32">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1576,10 +1584,10 @@
         <v>37</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1590,7 +1598,7 @@
         <v>0.5</v>
       </c>
       <c r="D33">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1605,24 +1613,53 @@
         <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F34" s="3"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <v>-0.6</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>30</v>
+      </c>
+      <c r="G34">
+        <v>350</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F35" s="3"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F36" s="3"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F37" s="3"/>
       <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F38" s="3"/>
+      <c r="H38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1638,9 +1675,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -1682,7 +1719,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -1714,7 +1751,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -1746,7 +1783,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -1778,7 +1815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -1810,7 +1847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -1842,7 +1879,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -1874,7 +1911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -1906,7 +1943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -1938,7 +1975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -1970,7 +2007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2002,7 +2039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -2034,7 +2071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -2066,7 +2103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -2098,7 +2135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -2130,7 +2167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -2162,7 +2199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -2194,7 +2231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -2226,7 +2263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -2258,7 +2295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -2290,7 +2327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2335,9 +2372,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -2379,7 +2416,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -2411,7 +2448,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -2443,7 +2480,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -2475,7 +2512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -2507,7 +2544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -2539,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -2571,7 +2608,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -2603,7 +2640,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -2635,7 +2672,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -2667,7 +2704,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2699,7 +2736,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -2731,7 +2768,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -2763,7 +2800,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -2795,7 +2832,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -2827,7 +2864,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -2859,7 +2896,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -2891,7 +2928,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -2923,7 +2960,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -2955,7 +2992,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -2987,7 +3024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3032,9 +3069,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -3076,7 +3113,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -3108,7 +3145,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -3140,7 +3177,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -3172,7 +3209,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -3204,7 +3241,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -3236,7 +3273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -3268,7 +3305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -3300,7 +3337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -3332,7 +3369,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -3364,7 +3401,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3396,7 +3433,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -3428,7 +3465,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -3460,7 +3497,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -3492,7 +3529,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -3524,7 +3561,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -3556,7 +3593,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -3588,7 +3625,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -3620,7 +3657,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -3652,7 +3689,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -3684,7 +3721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3729,9 +3766,9 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -3773,7 +3810,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -3805,7 +3842,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -3837,7 +3874,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -3869,7 +3906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -3901,7 +3938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -3933,7 +3970,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -3965,7 +4002,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -3997,7 +4034,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -4029,7 +4066,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -4061,7 +4098,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4093,7 +4130,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -4125,7 +4162,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -4157,7 +4194,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -4189,7 +4226,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -4221,7 +4258,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -4253,7 +4290,7 @@
         <v>-73</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -4285,7 +4322,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -4317,7 +4354,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -4349,7 +4386,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -4381,7 +4418,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4426,9 +4463,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -4470,7 +4507,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -4502,7 +4539,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -4534,7 +4571,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -4566,7 +4603,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -4598,7 +4635,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -4630,7 +4667,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -4662,7 +4699,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -4694,7 +4731,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -4726,7 +4763,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -4758,7 +4795,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4790,7 +4827,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -4822,7 +4859,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -4854,7 +4891,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -4886,7 +4923,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -4918,7 +4955,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -4950,7 +4987,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -4982,7 +5019,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -5014,7 +5051,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -5046,7 +5083,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -5078,7 +5115,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5123,9 +5160,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -5167,7 +5204,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -5199,7 +5236,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -5231,7 +5268,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -5263,7 +5300,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -5295,7 +5332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -5327,7 +5364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -5359,7 +5396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -5391,7 +5428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -5423,7 +5460,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -5455,7 +5492,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5487,7 +5524,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -5519,7 +5556,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -5551,7 +5588,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -5583,7 +5620,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -5615,7 +5652,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -5647,7 +5684,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -5679,7 +5716,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -5711,7 +5748,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -5743,7 +5780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -5775,7 +5812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5820,9 +5857,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -5864,7 +5901,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -5896,7 +5933,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -5928,7 +5965,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -5960,7 +5997,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -5992,7 +6029,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -6024,7 +6061,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -6056,7 +6093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -6088,7 +6125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -6120,7 +6157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -6152,7 +6189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6184,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -6216,7 +6253,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -6248,7 +6285,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -6280,7 +6317,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -6312,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -6344,7 +6381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -6376,7 +6413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -6408,7 +6445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -6440,7 +6477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -6472,7 +6509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -6517,9 +6554,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -6561,7 +6598,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -6593,7 +6630,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -6625,7 +6662,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -6657,7 +6694,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -6689,7 +6726,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -6721,7 +6758,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -6753,7 +6790,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -6785,7 +6822,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -6817,7 +6854,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -6849,7 +6886,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6881,7 +6918,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -6913,7 +6950,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -6945,7 +6982,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -6977,7 +7014,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -7009,7 +7046,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -7041,7 +7078,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -7073,7 +7110,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -7105,7 +7142,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -7137,7 +7174,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -7169,7 +7206,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7214,9 +7251,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -7261,7 +7298,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -7296,7 +7333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -7331,7 +7368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -7366,7 +7403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -7401,7 +7438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -7436,7 +7473,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -7471,7 +7508,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -7506,7 +7543,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -7541,7 +7578,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -7576,7 +7613,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7611,7 +7648,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -7646,7 +7683,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -7681,7 +7718,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -7716,7 +7753,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -7751,7 +7788,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -7786,7 +7823,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -7821,7 +7858,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -7856,7 +7893,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -7891,7 +7928,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -7926,7 +7963,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7974,9 +8011,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -8021,7 +8058,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -8056,7 +8093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -8091,7 +8128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -8126,7 +8163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -8161,7 +8198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -8196,7 +8233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -8231,7 +8268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -8266,7 +8303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -8301,7 +8338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -8336,7 +8373,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -8371,7 +8408,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -8406,7 +8443,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -8441,7 +8478,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -8476,7 +8513,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -8511,7 +8548,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -8546,7 +8583,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -8581,7 +8618,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -8616,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -8651,7 +8688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -8686,7 +8723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8734,9 +8771,9 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -8772,7 +8809,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -8804,7 +8841,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -8836,7 +8873,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -8868,7 +8905,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -8900,7 +8937,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -8932,7 +8969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -8964,7 +9001,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -8996,7 +9033,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -9028,7 +9065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -9060,7 +9097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -9092,7 +9129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -9124,7 +9161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -9156,7 +9193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -9188,7 +9225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -9220,7 +9257,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -9252,7 +9289,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -9284,7 +9321,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -9316,7 +9353,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -9348,7 +9385,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -9380,7 +9417,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -9423,9 +9460,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9433,7 +9470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>0.4*0.05</f>
         <v>2.0000000000000004E-2</v>
@@ -9442,7 +9479,7 @@
         <v>4.5600000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>0.8*0.05</f>
         <v>4.0000000000000008E-2</v>
@@ -9451,7 +9488,7 @@
         <v>4.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>1*0.05</f>
         <v>0.05</v>
@@ -9460,7 +9497,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>1.2*0.05</f>
         <v>0.06</v>
@@ -9469,7 +9506,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>1.6*0.05</f>
         <v>8.0000000000000016E-2</v>
@@ -9478,7 +9515,7 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>2*0.05</f>
         <v>0.1</v>
@@ -9498,9 +9535,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9508,7 +9545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>EXP(-0.1*SQRT(2))*0.5</f>
         <v>0.43406172269729243</v>
@@ -9517,7 +9554,7 @@
         <v>0.22138319683086599</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>1*0.5</f>
         <v>0.5</v>
@@ -9526,7 +9563,7 @@
         <v>0.193836689413803</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>EXP(0.1*SQRT(2))*0.5</f>
         <v>0.57595495508445449</v>
@@ -9546,9 +9583,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9556,7 +9593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>EXP(-0.1*SQRT(10))*0.07</f>
         <v>5.1022538987701718E-2</v>
@@ -9565,7 +9602,7 @@
         <v>5.2450313614407003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>1*0.07</f>
         <v>7.0000000000000007E-2</v>
@@ -9574,7 +9611,7 @@
         <v>4.6585753491306003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>EXP(0.1*SQRT(10))*0.07</f>
         <v>9.6035989137684394E-2</v>
@@ -9596,9 +9633,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9627,7 +9664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
@@ -9656,7 +9693,7 @@
         <v>0.1217</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4.05</v>
       </c>
@@ -9685,7 +9722,7 @@
         <v>0.11940000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4.1500000000000004</v>
       </c>
@@ -9714,7 +9751,7 @@
         <v>0.1148</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4.25</v>
       </c>
@@ -9743,7 +9780,7 @@
         <v>0.11020000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4.3499999999999996</v>
       </c>
@@ -9772,7 +9809,7 @@
         <v>0.1056</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4.45</v>
       </c>
@@ -9801,7 +9838,7 @@
         <v>0.1075</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4.55</v>
       </c>
@@ -9830,7 +9867,7 @@
         <v>0.10929999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4.6500000000000004</v>
       </c>
@@ -9859,7 +9896,7 @@
         <v>0.1109</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4.75</v>
       </c>
@@ -9888,7 +9925,7 @@
         <v>0.1124</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4.8500000000000005</v>
       </c>
@@ -9917,7 +9954,7 @@
         <v>0.1138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4.95</v>
       </c>
@@ -9946,7 +9983,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5</v>
       </c>
@@ -9985,12 +10022,12 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10019,7 +10056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3</v>
       </c>
@@ -10048,7 +10085,7 @@
         <v>0.29549999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.1</v>
       </c>
@@ -10077,7 +10114,7 @@
         <v>0.2858</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.2</v>
       </c>
@@ -10106,7 +10143,7 @@
         <v>0.27679999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3.3000000000000003</v>
       </c>
@@ -10135,7 +10172,7 @@
         <v>0.26829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3.4000000000000004</v>
       </c>
@@ -10164,7 +10201,7 @@
         <v>0.26040000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3.5000000000000004</v>
       </c>
@@ -10193,7 +10230,7 @@
         <v>0.25290000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3.5999999999999996</v>
       </c>
@@ -10222,7 +10259,7 @@
         <v>0.25169999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.6999999999999997</v>
       </c>
@@ -10251,7 +10288,7 @@
         <v>0.25069999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3.8</v>
       </c>
@@ -10280,7 +10317,7 @@
         <v>0.24979999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.9</v>
       </c>
@@ -10309,7 +10346,7 @@
         <v>0.24909999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10349,9 +10386,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10362,7 +10399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10373,7 +10410,7 @@
         <v>0.43173</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10384,7 +10421,7 @@
         <v>0.30212</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10395,7 +10432,7 @@
         <v>0.19869999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10406,7 +10443,7 @@
         <v>0.14935999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10417,7 +10454,7 @@
         <v>0.16977999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10428,7 +10465,7 @@
         <v>0.19700999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10452,9 +10489,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10465,7 +10502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10476,7 +10513,7 @@
         <v>0.40655000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10487,7 +10524,7 @@
         <v>0.28815000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10498,7 +10535,7 @@
         <v>0.19349</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10509,7 +10546,7 @@
         <v>0.14885999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10520,7 +10557,7 @@
         <v>0.16627</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10531,7 +10568,7 @@
         <v>0.18997</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10553,9 +10590,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10566,7 +10603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10577,7 +10614,7 @@
         <v>0.37372</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10588,7 +10625,7 @@
         <v>0.26822000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10599,7 +10636,7 @@
         <v>0.18373</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10610,7 +10647,7 @@
         <v>0.14358000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10621,7 +10658,7 @@
         <v>0.15745999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10632,7 +10669,7 @@
         <v>0.17724999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10654,9 +10691,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10667,7 +10704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10678,7 +10715,7 @@
         <v>0.29820999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10689,7 +10726,7 @@
         <v>0.2177</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10700,7 +10737,7 @@
         <v>0.15304000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10711,7 +10748,7 @@
         <v>0.12148</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10722,7 +10759,7 @@
         <v>0.13013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10733,7 +10770,7 @@
         <v>0.14380999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10755,9 +10792,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10768,7 +10805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10779,7 +10816,7 @@
         <v>0.22885</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10790,7 +10827,7 @@
         <v>0.16825000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10801,7 +10838,7 @@
         <v>0.11955</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10812,7 +10849,7 @@
         <v>9.5509999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10823,7 +10860,7 @@
         <v>0.10141</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10834,7 +10871,7 @@
         <v>0.11126</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10856,9 +10893,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -10900,7 +10937,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -10932,7 +10969,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -10964,7 +11001,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -10996,7 +11033,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -11028,7 +11065,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -11060,7 +11097,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -11092,7 +11129,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -11124,7 +11161,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -11156,7 +11193,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -11188,7 +11225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11220,7 +11257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -11252,7 +11289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -11284,7 +11321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -11316,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -11348,7 +11385,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -11380,7 +11417,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -11412,7 +11449,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -11444,7 +11481,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -11476,7 +11513,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -11508,7 +11545,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -11553,9 +11590,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -11566,7 +11603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>500</v>
       </c>
@@ -11577,7 +11614,7 @@
         <v>0.10552</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>750</v>
       </c>
@@ -11588,7 +11625,7 @@
         <v>7.7770000000000006E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -11599,7 +11636,7 @@
         <v>5.5489999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -11610,7 +11647,7 @@
         <v>4.4470000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -11621,7 +11658,7 @@
         <v>4.7079999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -11632,7 +11669,7 @@
         <v>5.1529999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -11649,93 +11686,90 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F4D350-0BF0-455E-8B67-FCF66F04B01D}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F27B7C-D988-4D96-94A0-15637D2422FC}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>572.02432426999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>227.04</v>
+      </c>
+      <c r="C2">
+        <v>227.4572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B3">
-        <v>489.87873865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>150.41999999999999</v>
+      </c>
+      <c r="C3">
+        <v>150.63900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B4">
-        <v>414.2388598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>90.71</v>
+      </c>
+      <c r="C4">
+        <v>90.832899999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B5">
-        <v>349.19489362000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50.81</v>
+      </c>
+      <c r="C5">
+        <v>51.075099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="B6">
-        <v>322.15532949999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27.59</v>
+      </c>
+      <c r="C6">
+        <v>28.071200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="B7">
-        <v>299.19489362000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>500</v>
-      </c>
-      <c r="B8">
-        <v>264.2388598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>600</v>
-      </c>
-      <c r="B9">
-        <v>239.87873865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>700</v>
-      </c>
-      <c r="B10">
-        <v>222.02432426999999</v>
+        <v>15.07</v>
+      </c>
+      <c r="C7">
+        <v>15.672000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -11744,16 +11778,16 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A3D790-BB77-4577-BEE6-4E9296543750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F4D350-0BF0-455E-8B67-FCF66F04B01D}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -11761,76 +11795,76 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>580.55474930000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>572.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3">
-        <v>495.83602302000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>489.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>200</v>
       </c>
       <c r="B4">
-        <v>415.99302620999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>414.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>300</v>
       </c>
       <c r="B5">
-        <v>344.18593174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>349.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>350</v>
       </c>
       <c r="B6">
-        <v>312.81611550999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>322.16000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>400</v>
       </c>
       <c r="B7">
-        <v>285.36037649000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>299.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>500</v>
       </c>
       <c r="B8">
-        <v>243.03406385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>264.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>600</v>
       </c>
       <c r="B9">
-        <v>214.53419274000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>239.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>700</v>
       </c>
       <c r="B10">
-        <v>194.70110382999999</v>
+        <v>222.02</v>
       </c>
     </row>
   </sheetData>
@@ -11839,16 +11873,109 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A3D790-BB77-4577-BEE6-4E9296543750}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>580.54999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>495.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>415.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>344.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>350</v>
+      </c>
+      <c r="B6">
+        <v>312.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>400</v>
+      </c>
+      <c r="B7">
+        <v>285.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>500</v>
+      </c>
+      <c r="B8">
+        <v>243.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>600</v>
+      </c>
+      <c r="B9">
+        <v>214.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>700</v>
+      </c>
+      <c r="B10">
+        <v>194.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36438560-CCC4-4FCC-A8E0-2457D704FAF5}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -11856,76 +11983,76 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>569.44780020999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>569.45000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3">
-        <v>481.51989931000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>481.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>200</v>
       </c>
       <c r="B4">
-        <v>397.02796374000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>397.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>300</v>
       </c>
       <c r="B5">
-        <v>318.22818044000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>318.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>350</v>
       </c>
       <c r="B6">
-        <v>282.24098647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>282.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>400</v>
       </c>
       <c r="B7">
-        <v>249.61469442000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>249.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>500</v>
       </c>
       <c r="B8">
-        <v>198.0204885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>198.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>600</v>
       </c>
       <c r="B9">
-        <v>165.13068946000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>165.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>700</v>
       </c>
       <c r="B10">
-        <v>144.45101294</v>
+        <v>144.44999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11942,9 +12069,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -11986,7 +12113,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -12018,7 +12145,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -12050,7 +12177,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -12082,7 +12209,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -12114,7 +12241,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -12146,7 +12273,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -12178,7 +12305,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -12210,7 +12337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -12242,7 +12369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -12274,7 +12401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -12306,7 +12433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -12338,7 +12465,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -12370,7 +12497,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -12402,7 +12529,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -12434,7 +12561,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -12466,7 +12593,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -12498,7 +12625,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -12530,7 +12657,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -12562,7 +12689,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -12594,7 +12721,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12639,9 +12766,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -12683,7 +12810,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -12715,7 +12842,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -12747,7 +12874,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -12779,7 +12906,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -12811,7 +12938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -12843,7 +12970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -12875,7 +13002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -12907,7 +13034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -12939,7 +13066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -12971,7 +13098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -13003,7 +13130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -13035,7 +13162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -13067,7 +13194,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -13099,7 +13226,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -13131,7 +13258,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -13163,7 +13290,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -13195,7 +13322,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -13227,7 +13354,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -13259,7 +13386,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -13291,7 +13418,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -13336,9 +13463,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -13380,7 +13507,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -13412,7 +13539,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -13444,7 +13571,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -13476,7 +13603,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -13508,7 +13635,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -13540,7 +13667,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -13572,7 +13699,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -13604,7 +13731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -13636,7 +13763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -13668,7 +13795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -13700,7 +13827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -13732,7 +13859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -13764,7 +13891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -13796,7 +13923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -13828,7 +13955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -13860,7 +13987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -13892,7 +14019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -13924,7 +14051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -13956,7 +14083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -13988,7 +14115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -14031,9 +14158,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -14075,7 +14202,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -14107,7 +14234,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -14139,7 +14266,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -14171,7 +14298,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -14203,7 +14330,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -14235,7 +14362,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -14267,7 +14394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -14299,7 +14426,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -14331,7 +14458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -14363,7 +14490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -14395,7 +14522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -14427,7 +14554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -14459,7 +14586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -14491,7 +14618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -14523,7 +14650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -14555,7 +14682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -14587,7 +14714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -14619,7 +14746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -14651,7 +14778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -14683,7 +14810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -14728,9 +14855,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -14772,7 +14899,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -14804,7 +14931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -14836,7 +14963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -14868,7 +14995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -14900,7 +15027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -14932,7 +15059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -14964,7 +15091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -14996,7 +15123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -15028,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -15060,7 +15187,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -15092,7 +15219,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -15124,7 +15251,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -15156,7 +15283,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -15188,7 +15315,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -15220,7 +15347,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -15252,7 +15379,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -15284,7 +15411,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -15316,7 +15443,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -15348,7 +15475,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -15380,7 +15507,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -15425,9 +15552,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -15469,7 +15596,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -15501,7 +15628,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -15533,7 +15660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -15565,7 +15692,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -15597,7 +15724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -15629,7 +15756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -15661,7 +15788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -15693,7 +15820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -15725,7 +15852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -15757,7 +15884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -15789,7 +15916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -15821,7 +15948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -15853,7 +15980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -15885,7 +16012,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -15917,7 +16044,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -15949,7 +16076,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -15981,7 +16108,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -16013,7 +16140,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -16045,7 +16172,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -16077,7 +16204,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>

--- a/pyfeng/data/sabr_benchmark.xlsx
+++ b/pyfeng/data/sabr_benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PyFENG\pyfeng\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6680F052-71AC-4AD4-851D-A626CE9F2B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AB8831-753F-44B7-96A9-439983A696AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="743" xr2:uid="{CFD8C97F-677E-4081-BE35-9D7DB797B3CD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20376" windowHeight="16560" tabRatio="743" xr2:uid="{CFD8C97F-677E-4081-BE35-9D7DB797B3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Param" sheetId="7" r:id="rId1"/>
@@ -43,10 +43,9 @@
     <sheet name="27" sheetId="30" r:id="rId28"/>
     <sheet name="28" sheetId="25" r:id="rId29"/>
     <sheet name="29" sheetId="26" r:id="rId30"/>
-    <sheet name="30" sheetId="34" r:id="rId31"/>
-    <sheet name="31" sheetId="31" r:id="rId32"/>
-    <sheet name="32" sheetId="32" r:id="rId33"/>
-    <sheet name="33" sheetId="33" r:id="rId34"/>
+    <sheet name="30" sheetId="31" r:id="rId31"/>
+    <sheet name="31" sheetId="32" r:id="rId32"/>
+    <sheet name="32" sheetId="33" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>sigma</t>
   </si>
@@ -205,19 +204,13 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Hagan</t>
+    <t>Case 2, Choi &amp; Seo (2023)</t>
   </si>
   <si>
-    <t>Case 2A in Choi &amp; Seo (2024). Same as Case 23 rescaled by 10000</t>
+    <t>Case 3, Choi &amp; Seo (2023)</t>
   </si>
   <si>
-    <t>Case 2B in Choi &amp; Seo (2024)</t>
-  </si>
-  <si>
-    <t>Case 2C in Choi &amp; Seo (2024)</t>
-  </si>
-  <si>
-    <t>Case 1 in Choi &amp; Seo (2024). Table 3 and 4 in Choi, Liu &amp; Seo (2019) rescaled by 10000</t>
+    <t>Case 1, Choi &amp; Seo (2023). Same as Case 23 rescaled by 10000</t>
   </si>
 </sst>
 </file>
@@ -586,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584B610-149E-4DFB-B94E-F604CBCB4976}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -595,9 +588,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -626,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -657,7 +650,7 @@
         <v>Table 1 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A19" si="1">A2+1</f>
         <v>2</v>
@@ -689,7 +682,7 @@
         <v>Table 2 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -721,7 +714,7 @@
         <v>Table 3 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -753,7 +746,7 @@
         <v>Table 4 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -785,7 +778,7 @@
         <v>Table 5 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -817,7 +810,7 @@
         <v>Table 6 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -849,7 +842,7 @@
         <v>Table 7 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -881,7 +874,7 @@
         <v>Table 8 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -913,7 +906,7 @@
         <v>Table 9 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -945,7 +938,7 @@
         <v>Table 10 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -977,7 +970,7 @@
         <v>Table 11 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1009,7 +1002,7 @@
         <v>Table 12 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1041,7 +1034,7 @@
         <v>Table 13 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1072,7 +1065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1104,7 +1097,7 @@
         <v>Table 15 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1136,7 +1129,7 @@
         <v>Table 16 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1167,7 +1160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1198,7 +1191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1228,7 +1221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1258,7 +1251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1288,7 +1281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1318,7 +1311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1348,7 +1341,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1378,7 +1371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1408,7 +1401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1438,7 +1431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1468,7 +1461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1498,7 +1491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1528,37 +1521,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>69.118399999999994</v>
-      </c>
-      <c r="C31">
-        <v>0.22372443</v>
+        <v>100</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.5</v>
       </c>
       <c r="D31">
-        <v>1.6968770000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G31">
-        <v>300</v>
-      </c>
-      <c r="H31" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="H31" ca="1">INDIRECT(A31&amp;"!$B$1")</f>
-        <v>Price</v>
+        <v>350</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1569,7 +1561,7 @@
         <v>0.5</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1584,10 +1576,10 @@
         <v>37</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1598,7 +1590,7 @@
         <v>0.5</v>
       </c>
       <c r="D33">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1613,53 +1605,24 @@
         <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>100</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D34">
-        <v>-0.6</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>30</v>
-      </c>
-      <c r="G34">
-        <v>350</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F34" s="3"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F35" s="3"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F36" s="3"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F37" s="3"/>
       <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F38" s="3"/>
-      <c r="H38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1675,9 +1638,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -1719,7 +1682,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -1751,7 +1714,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -1783,7 +1746,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -1815,7 +1778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -1847,7 +1810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -1879,7 +1842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -1911,7 +1874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -1943,7 +1906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -1975,7 +1938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -2007,7 +1970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2039,7 +2002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -2071,7 +2034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -2103,7 +2066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -2135,7 +2098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -2167,7 +2130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -2199,7 +2162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -2231,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -2263,7 +2226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -2295,7 +2258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -2327,7 +2290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2372,9 +2335,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -2416,7 +2379,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -2448,7 +2411,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -2480,7 +2443,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -2512,7 +2475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -2544,7 +2507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -2576,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -2608,7 +2571,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -2640,7 +2603,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -2672,7 +2635,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -2704,7 +2667,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2736,7 +2699,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -2768,7 +2731,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -2800,7 +2763,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -2832,7 +2795,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -2864,7 +2827,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -2896,7 +2859,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -2928,7 +2891,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -2960,7 +2923,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -2992,7 +2955,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -3024,7 +2987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3069,9 +3032,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -3113,7 +3076,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -3145,7 +3108,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -3177,7 +3140,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -3209,7 +3172,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -3241,7 +3204,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -3273,7 +3236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -3305,7 +3268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -3337,7 +3300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -3369,7 +3332,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -3401,7 +3364,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3433,7 +3396,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -3465,7 +3428,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -3497,7 +3460,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -3529,7 +3492,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -3561,7 +3524,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -3593,7 +3556,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -3625,7 +3588,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -3657,7 +3620,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -3689,7 +3652,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -3721,7 +3684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3766,9 +3729,9 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -3810,7 +3773,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -3842,7 +3805,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -3874,7 +3837,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -3906,7 +3869,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -3938,7 +3901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -3970,7 +3933,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -4002,7 +3965,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -4034,7 +3997,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -4066,7 +4029,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -4098,7 +4061,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4130,7 +4093,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -4162,7 +4125,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -4194,7 +4157,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -4226,7 +4189,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -4258,7 +4221,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -4290,7 +4253,7 @@
         <v>-73</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -4322,7 +4285,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -4354,7 +4317,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -4386,7 +4349,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -4418,7 +4381,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4463,9 +4426,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -4507,7 +4470,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -4539,7 +4502,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -4571,7 +4534,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -4603,7 +4566,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -4635,7 +4598,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -4667,7 +4630,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -4699,7 +4662,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -4731,7 +4694,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -4763,7 +4726,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -4795,7 +4758,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4827,7 +4790,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -4859,7 +4822,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -4891,7 +4854,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -4923,7 +4886,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -4955,7 +4918,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -4987,7 +4950,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -5019,7 +4982,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -5051,7 +5014,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -5083,7 +5046,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -5115,7 +5078,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5160,9 +5123,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -5204,7 +5167,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -5236,7 +5199,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -5268,7 +5231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -5300,7 +5263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -5332,7 +5295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -5364,7 +5327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -5396,7 +5359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -5428,7 +5391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -5460,7 +5423,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -5492,7 +5455,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5524,7 +5487,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -5556,7 +5519,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -5588,7 +5551,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -5620,7 +5583,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -5652,7 +5615,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -5684,7 +5647,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -5716,7 +5679,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -5748,7 +5711,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -5780,7 +5743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -5812,7 +5775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5857,9 +5820,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -5901,7 +5864,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -5933,7 +5896,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -5965,7 +5928,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -5997,7 +5960,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -6029,7 +5992,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -6061,7 +6024,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -6093,7 +6056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -6125,7 +6088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -6157,7 +6120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -6189,7 +6152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6221,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -6253,7 +6216,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -6285,7 +6248,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -6317,7 +6280,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -6349,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -6381,7 +6344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -6413,7 +6376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -6445,7 +6408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -6477,7 +6440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -6509,7 +6472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -6554,9 +6517,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -6598,7 +6561,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -6630,7 +6593,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -6662,7 +6625,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -6694,7 +6657,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -6726,7 +6689,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -6758,7 +6721,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -6790,7 +6753,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -6822,7 +6785,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -6854,7 +6817,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -6886,7 +6849,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6918,7 +6881,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -6950,7 +6913,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -6982,7 +6945,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -7014,7 +6977,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -7046,7 +7009,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -7078,7 +7041,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -7110,7 +7073,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -7142,7 +7105,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -7174,7 +7137,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -7206,7 +7169,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7251,9 +7214,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -7298,7 +7261,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -7333,7 +7296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -7368,7 +7331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -7403,7 +7366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -7438,7 +7401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -7473,7 +7436,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -7508,7 +7471,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -7543,7 +7506,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -7578,7 +7541,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -7613,7 +7576,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7648,7 +7611,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -7683,7 +7646,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -7718,7 +7681,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -7753,7 +7716,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -7788,7 +7751,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -7823,7 +7786,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -7858,7 +7821,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -7893,7 +7856,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -7928,7 +7891,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -7963,7 +7926,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8011,9 +7974,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -8058,7 +8021,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -8093,7 +8056,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -8128,7 +8091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -8163,7 +8126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -8198,7 +8161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -8233,7 +8196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -8268,7 +8231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -8303,7 +8266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -8338,7 +8301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -8373,7 +8336,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -8408,7 +8371,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -8443,7 +8406,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -8478,7 +8441,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -8513,7 +8476,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -8548,7 +8511,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -8583,7 +8546,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -8618,7 +8581,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -8653,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -8688,7 +8651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -8723,7 +8686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8771,9 +8734,9 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -8809,7 +8772,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -8841,7 +8804,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -8873,7 +8836,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -8905,7 +8868,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -8937,7 +8900,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -8969,7 +8932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -9001,7 +8964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -9033,7 +8996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -9065,7 +9028,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -9097,7 +9060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -9129,7 +9092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -9161,7 +9124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -9193,7 +9156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -9225,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -9257,7 +9220,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -9289,7 +9252,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -9321,7 +9284,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -9353,7 +9316,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -9385,7 +9348,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -9417,7 +9380,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -9460,9 +9423,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9470,7 +9433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>0.4*0.05</f>
         <v>2.0000000000000004E-2</v>
@@ -9479,7 +9442,7 @@
         <v>4.5600000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>0.8*0.05</f>
         <v>4.0000000000000008E-2</v>
@@ -9488,7 +9451,7 @@
         <v>4.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>1*0.05</f>
         <v>0.05</v>
@@ -9497,7 +9460,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>1.2*0.05</f>
         <v>0.06</v>
@@ -9506,7 +9469,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>1.6*0.05</f>
         <v>8.0000000000000016E-2</v>
@@ -9515,7 +9478,7 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>2*0.05</f>
         <v>0.1</v>
@@ -9535,9 +9498,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9545,7 +9508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>EXP(-0.1*SQRT(2))*0.5</f>
         <v>0.43406172269729243</v>
@@ -9554,7 +9517,7 @@
         <v>0.22138319683086599</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>1*0.5</f>
         <v>0.5</v>
@@ -9563,7 +9526,7 @@
         <v>0.193836689413803</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>EXP(0.1*SQRT(2))*0.5</f>
         <v>0.57595495508445449</v>
@@ -9583,9 +9546,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9593,7 +9556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>EXP(-0.1*SQRT(10))*0.07</f>
         <v>5.1022538987701718E-2</v>
@@ -9602,7 +9565,7 @@
         <v>5.2450313614407003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>1*0.07</f>
         <v>7.0000000000000007E-2</v>
@@ -9611,7 +9574,7 @@
         <v>4.6585753491306003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>EXP(0.1*SQRT(10))*0.07</f>
         <v>9.6035989137684394E-2</v>
@@ -9633,9 +9596,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9664,7 +9627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -9693,7 +9656,7 @@
         <v>0.1217</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4.05</v>
       </c>
@@ -9722,7 +9685,7 @@
         <v>0.11940000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4.1500000000000004</v>
       </c>
@@ -9751,7 +9714,7 @@
         <v>0.1148</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4.25</v>
       </c>
@@ -9780,7 +9743,7 @@
         <v>0.11020000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4.3499999999999996</v>
       </c>
@@ -9809,7 +9772,7 @@
         <v>0.1056</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4.45</v>
       </c>
@@ -9838,7 +9801,7 @@
         <v>0.1075</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4.55</v>
       </c>
@@ -9867,7 +9830,7 @@
         <v>0.10929999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4.6500000000000004</v>
       </c>
@@ -9896,7 +9859,7 @@
         <v>0.1109</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4.75</v>
       </c>
@@ -9925,7 +9888,7 @@
         <v>0.1124</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4.8500000000000005</v>
       </c>
@@ -9954,7 +9917,7 @@
         <v>0.1138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4.95</v>
       </c>
@@ -9983,7 +9946,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -10022,12 +9985,12 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10056,7 +10019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -10085,7 +10048,7 @@
         <v>0.29549999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3.1</v>
       </c>
@@ -10114,7 +10077,7 @@
         <v>0.2858</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3.2</v>
       </c>
@@ -10143,7 +10106,7 @@
         <v>0.27679999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.3000000000000003</v>
       </c>
@@ -10172,7 +10135,7 @@
         <v>0.26829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3.4000000000000004</v>
       </c>
@@ -10201,7 +10164,7 @@
         <v>0.26040000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.5000000000000004</v>
       </c>
@@ -10230,7 +10193,7 @@
         <v>0.25290000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.5999999999999996</v>
       </c>
@@ -10259,7 +10222,7 @@
         <v>0.25169999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.6999999999999997</v>
       </c>
@@ -10288,7 +10251,7 @@
         <v>0.25069999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.8</v>
       </c>
@@ -10317,7 +10280,7 @@
         <v>0.24979999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.9</v>
       </c>
@@ -10346,7 +10309,7 @@
         <v>0.24909999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10386,9 +10349,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10399,7 +10362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10410,7 +10373,7 @@
         <v>0.43173</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10421,7 +10384,7 @@
         <v>0.30212</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10432,7 +10395,7 @@
         <v>0.19869999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10443,7 +10406,7 @@
         <v>0.14935999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10454,7 +10417,7 @@
         <v>0.16977999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10465,7 +10428,7 @@
         <v>0.19700999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10489,9 +10452,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10502,7 +10465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10513,7 +10476,7 @@
         <v>0.40655000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10524,7 +10487,7 @@
         <v>0.28815000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10535,7 +10498,7 @@
         <v>0.19349</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10546,7 +10509,7 @@
         <v>0.14885999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10557,7 +10520,7 @@
         <v>0.16627</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10568,7 +10531,7 @@
         <v>0.18997</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10590,9 +10553,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10603,7 +10566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10614,7 +10577,7 @@
         <v>0.37372</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10625,7 +10588,7 @@
         <v>0.26822000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10636,7 +10599,7 @@
         <v>0.18373</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10647,7 +10610,7 @@
         <v>0.14358000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10658,7 +10621,7 @@
         <v>0.15745999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10669,7 +10632,7 @@
         <v>0.17724999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10691,9 +10654,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10704,7 +10667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10715,7 +10678,7 @@
         <v>0.29820999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10726,7 +10689,7 @@
         <v>0.2177</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10737,7 +10700,7 @@
         <v>0.15304000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10748,7 +10711,7 @@
         <v>0.12148</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10759,7 +10722,7 @@
         <v>0.13013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10770,7 +10733,7 @@
         <v>0.14380999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10792,9 +10755,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10805,7 +10768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10816,7 +10779,7 @@
         <v>0.22885</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10827,7 +10790,7 @@
         <v>0.16825000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10838,7 +10801,7 @@
         <v>0.11955</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10849,7 +10812,7 @@
         <v>9.5509999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10860,7 +10823,7 @@
         <v>0.10141</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10871,7 +10834,7 @@
         <v>0.11126</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10893,9 +10856,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -10937,7 +10900,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -10969,7 +10932,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -11001,7 +10964,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -11033,7 +10996,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -11065,7 +11028,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -11097,7 +11060,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -11129,7 +11092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -11161,7 +11124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -11193,7 +11156,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -11225,7 +11188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11257,7 +11220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -11289,7 +11252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -11321,7 +11284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -11353,7 +11316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -11385,7 +11348,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -11417,7 +11380,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -11449,7 +11412,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -11481,7 +11444,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -11513,7 +11476,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -11545,7 +11508,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -11590,9 +11553,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -11603,7 +11566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -11614,7 +11577,7 @@
         <v>0.10552</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>750</v>
       </c>
@@ -11625,7 +11588,7 @@
         <v>7.7770000000000006E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -11636,7 +11599,7 @@
         <v>5.5489999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -11647,7 +11610,7 @@
         <v>4.4470000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -11658,7 +11621,7 @@
         <v>4.7079999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -11669,7 +11632,7 @@
         <v>5.1529999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -11686,90 +11649,93 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F27B7C-D988-4D96-94A0-15637D2422FC}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F4D350-0BF0-455E-8B67-FCF66F04B01D}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>572.02432426999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>100</v>
       </c>
-      <c r="B2">
-        <v>227.04</v>
-      </c>
-      <c r="C2">
-        <v>227.4572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="B3">
+        <v>489.87873865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>200</v>
       </c>
-      <c r="B3">
-        <v>150.41999999999999</v>
-      </c>
-      <c r="C3">
-        <v>150.63900000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="B4">
+        <v>414.2388598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>300</v>
       </c>
-      <c r="B4">
-        <v>90.71</v>
-      </c>
-      <c r="C4">
-        <v>90.832899999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="B5">
+        <v>349.19489362000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>350</v>
+      </c>
+      <c r="B6">
+        <v>322.15532949999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>400</v>
       </c>
-      <c r="B5">
-        <v>50.81</v>
-      </c>
-      <c r="C5">
-        <v>51.075099999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="B7">
+        <v>299.19489362000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>500</v>
       </c>
-      <c r="B6">
-        <v>27.59</v>
-      </c>
-      <c r="C6">
-        <v>28.071200000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="B8">
+        <v>264.2388598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>600</v>
       </c>
-      <c r="B7">
-        <v>15.07</v>
-      </c>
-      <c r="C7">
-        <v>15.672000000000001</v>
+      <c r="B9">
+        <v>239.87873865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>700</v>
+      </c>
+      <c r="B10">
+        <v>222.02432426999999</v>
       </c>
     </row>
   </sheetData>
@@ -11778,16 +11744,16 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F4D350-0BF0-455E-8B67-FCF66F04B01D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A3D790-BB77-4577-BEE6-4E9296543750}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -11795,76 +11761,76 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>572.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>580.55474930000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3">
-        <v>489.88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>495.83602302000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>200</v>
       </c>
       <c r="B4">
-        <v>414.24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>415.99302620999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>300</v>
       </c>
       <c r="B5">
-        <v>349.19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>344.18593174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>350</v>
       </c>
       <c r="B6">
-        <v>322.16000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>312.81611550999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>400</v>
       </c>
       <c r="B7">
-        <v>299.19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>285.36037649000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>500</v>
       </c>
       <c r="B8">
-        <v>264.24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>243.03406385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>600</v>
       </c>
       <c r="B9">
-        <v>239.88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>214.53419274000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>700</v>
       </c>
       <c r="B10">
-        <v>222.02</v>
+        <v>194.70110382999999</v>
       </c>
     </row>
   </sheetData>
@@ -11873,16 +11839,16 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A3D790-BB77-4577-BEE6-4E9296543750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36438560-CCC4-4FCC-A8E0-2457D704FAF5}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -11890,169 +11856,76 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>580.54999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>569.44780020999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3">
-        <v>495.84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>481.51989931000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>200</v>
       </c>
       <c r="B4">
-        <v>415.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>397.02796374000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>300</v>
       </c>
       <c r="B5">
-        <v>344.19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>318.22818044000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>350</v>
       </c>
       <c r="B6">
-        <v>312.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>282.24098647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>400</v>
       </c>
       <c r="B7">
-        <v>285.36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>249.61469442000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>500</v>
       </c>
       <c r="B8">
-        <v>243.03</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>198.0204885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>600</v>
       </c>
       <c r="B9">
-        <v>214.53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>165.13068946000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>700</v>
       </c>
       <c r="B10">
-        <v>194.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36438560-CCC4-4FCC-A8E0-2457D704FAF5}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>569.45000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>481.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>200</v>
-      </c>
-      <c r="B4">
-        <v>397.03</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>300</v>
-      </c>
-      <c r="B5">
-        <v>318.23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>350</v>
-      </c>
-      <c r="B6">
-        <v>282.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>400</v>
-      </c>
-      <c r="B7">
-        <v>249.61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>500</v>
-      </c>
-      <c r="B8">
-        <v>198.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>600</v>
-      </c>
-      <c r="B9">
-        <v>165.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>700</v>
-      </c>
-      <c r="B10">
-        <v>144.44999999999999</v>
+        <v>144.45101294</v>
       </c>
     </row>
   </sheetData>
@@ -12069,9 +11942,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -12113,7 +11986,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -12145,7 +12018,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -12177,7 +12050,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -12209,7 +12082,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -12241,7 +12114,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -12273,7 +12146,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -12305,7 +12178,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -12337,7 +12210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -12369,7 +12242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -12401,7 +12274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -12433,7 +12306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -12465,7 +12338,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -12497,7 +12370,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -12529,7 +12402,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -12561,7 +12434,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -12593,7 +12466,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -12625,7 +12498,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -12657,7 +12530,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -12689,7 +12562,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -12721,7 +12594,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12766,9 +12639,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -12810,7 +12683,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -12842,7 +12715,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -12874,7 +12747,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -12906,7 +12779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -12938,7 +12811,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -12970,7 +12843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -13002,7 +12875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -13034,7 +12907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -13066,7 +12939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -13098,7 +12971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -13130,7 +13003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -13162,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -13194,7 +13067,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -13226,7 +13099,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -13258,7 +13131,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -13290,7 +13163,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -13322,7 +13195,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -13354,7 +13227,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -13386,7 +13259,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -13418,7 +13291,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -13463,9 +13336,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -13507,7 +13380,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -13539,7 +13412,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -13571,7 +13444,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -13603,7 +13476,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -13635,7 +13508,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -13667,7 +13540,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -13699,7 +13572,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -13731,7 +13604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -13763,7 +13636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -13795,7 +13668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -13827,7 +13700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -13859,7 +13732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -13891,7 +13764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -13923,7 +13796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -13955,7 +13828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -13987,7 +13860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -14019,7 +13892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -14051,7 +13924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -14083,7 +13956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -14115,7 +13988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -14158,9 +14031,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -14202,7 +14075,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -14234,7 +14107,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -14266,7 +14139,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -14298,7 +14171,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -14330,7 +14203,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -14362,7 +14235,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -14394,7 +14267,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -14426,7 +14299,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -14458,7 +14331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -14490,7 +14363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -14522,7 +14395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -14554,7 +14427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -14586,7 +14459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -14618,7 +14491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -14650,7 +14523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -14682,7 +14555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -14714,7 +14587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -14746,7 +14619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -14778,7 +14651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -14810,7 +14683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -14855,9 +14728,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -14899,7 +14772,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -14931,7 +14804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -14963,7 +14836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -14995,7 +14868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -15027,7 +14900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -15059,7 +14932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -15091,7 +14964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -15123,7 +14996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -15155,7 +15028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -15187,7 +15060,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -15219,7 +15092,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -15251,7 +15124,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -15283,7 +15156,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -15315,7 +15188,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -15347,7 +15220,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -15379,7 +15252,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -15411,7 +15284,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -15443,7 +15316,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -15475,7 +15348,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -15507,7 +15380,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -15552,9 +15425,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -15596,7 +15469,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -15628,7 +15501,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -15660,7 +15533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -15692,7 +15565,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -15724,7 +15597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -15756,7 +15629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -15788,7 +15661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -15820,7 +15693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -15852,7 +15725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -15884,7 +15757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -15916,7 +15789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -15948,7 +15821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -15980,7 +15853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -16012,7 +15885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -16044,7 +15917,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -16076,7 +15949,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -16108,7 +15981,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -16140,7 +16013,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -16172,7 +16045,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -16204,7 +16077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>

--- a/pyfeng/data/sabr_benchmark.xlsx
+++ b/pyfeng/data/sabr_benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PyFENG\pyfeng\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PyFENG\pyfeng\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AB8831-753F-44B7-96A9-439983A696AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D5095A-047E-49A3-A68C-B6417A9AC50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20376" windowHeight="16560" tabRatio="743" xr2:uid="{CFD8C97F-677E-4081-BE35-9D7DB797B3CD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="743" xr2:uid="{CFD8C97F-677E-4081-BE35-9D7DB797B3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Param" sheetId="7" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t>sigma</t>
   </si>
@@ -212,6 +212,9 @@
   <si>
     <t>Case 1, Choi &amp; Seo (2023). Same as Case 23 rescaled by 10000</t>
   </si>
+  <si>
+    <t>P FDM2</t>
+  </si>
 </sst>
 </file>
 
@@ -283,9 +286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -323,7 +326,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -429,7 +432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,9 +591,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -619,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -650,7 +653,7 @@
         <v>Table 1 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A19" si="1">A2+1</f>
         <v>2</v>
@@ -682,7 +685,7 @@
         <v>Table 2 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -714,7 +717,7 @@
         <v>Table 3 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -746,7 +749,7 @@
         <v>Table 4 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -778,7 +781,7 @@
         <v>Table 5 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -810,7 +813,7 @@
         <v>Table 6 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -842,7 +845,7 @@
         <v>Table 7 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -874,7 +877,7 @@
         <v>Table 8 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -906,7 +909,7 @@
         <v>Table 9 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -938,7 +941,7 @@
         <v>Table 10 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -970,7 +973,7 @@
         <v>Table 11 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1002,7 +1005,7 @@
         <v>Table 12 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1034,7 +1037,7 @@
         <v>Table 13 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1065,7 +1068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1097,7 +1100,7 @@
         <v>Table 15 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1129,7 +1132,7 @@
         <v>Table 16 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1160,7 +1163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1191,7 +1194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1608,19 +1611,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F34" s="3"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F35" s="3"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F36" s="3"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F37" s="3"/>
       <c r="H37" s="2"/>
     </row>
@@ -1638,9 +1641,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -1682,7 +1685,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -1778,7 +1781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -2034,7 +2037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -2290,7 +2293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2335,9 +2338,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -2379,7 +2382,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -2443,7 +2446,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -2763,7 +2766,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -2827,7 +2830,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -2987,7 +2990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3032,9 +3035,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -3076,7 +3079,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -3108,7 +3111,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -3140,7 +3143,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -3268,7 +3271,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3396,7 +3399,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -3556,7 +3559,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -3684,7 +3687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3729,9 +3732,9 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -3773,7 +3776,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>-73</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -4349,7 +4352,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4426,9 +4429,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -4470,7 +4473,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -4502,7 +4505,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -4534,7 +4537,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -4662,7 +4665,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -4758,7 +4761,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4790,7 +4793,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -4822,7 +4825,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -4886,7 +4889,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -4918,7 +4921,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -4982,7 +4985,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5123,9 +5126,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -5167,7 +5170,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -5231,7 +5234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -5295,7 +5298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -5327,7 +5330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -5359,7 +5362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -5391,7 +5394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -5423,7 +5426,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -5455,7 +5458,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5487,7 +5490,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -5519,7 +5522,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -5551,7 +5554,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -5583,7 +5586,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -5615,7 +5618,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -5679,7 +5682,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -5743,7 +5746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -5775,7 +5778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5820,9 +5823,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -5864,7 +5867,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -5896,7 +5899,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -5928,7 +5931,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -5960,7 +5963,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -5992,7 +5995,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -6024,7 +6027,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -6056,7 +6059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -6088,7 +6091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -6120,7 +6123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -6216,7 +6219,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -6280,7 +6283,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -6312,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -6344,7 +6347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -6408,7 +6411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -6440,7 +6443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -6472,7 +6475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -6517,9 +6520,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -6561,7 +6564,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -6593,7 +6596,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -6625,7 +6628,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -6657,7 +6660,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -6689,7 +6692,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -6721,7 +6724,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -6753,7 +6756,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -6817,7 +6820,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -6849,7 +6852,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6881,7 +6884,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -6913,7 +6916,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -6945,7 +6948,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -6977,7 +6980,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -7009,7 +7012,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -7041,7 +7044,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -7073,7 +7076,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -7105,7 +7108,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -7137,7 +7140,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -7169,7 +7172,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7214,9 +7217,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -7261,7 +7264,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -7296,7 +7299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -7331,7 +7334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -7366,7 +7369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -7401,7 +7404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -7436,7 +7439,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -7471,7 +7474,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -7541,7 +7544,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -7576,7 +7579,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7611,7 +7614,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -7646,7 +7649,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -7681,7 +7684,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -7716,7 +7719,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -7751,7 +7754,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -7786,7 +7789,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -7821,7 +7824,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -7856,7 +7859,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -7891,7 +7894,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -7926,7 +7929,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7974,9 +7977,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -8021,7 +8024,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -8056,7 +8059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -8091,7 +8094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -8126,7 +8129,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -8161,7 +8164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -8196,7 +8199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -8231,7 +8234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -8266,7 +8269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -8301,7 +8304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -8336,7 +8339,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -8371,7 +8374,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -8406,7 +8409,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -8441,7 +8444,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -8476,7 +8479,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -8511,7 +8514,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -8546,7 +8549,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -8581,7 +8584,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -8616,7 +8619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -8651,7 +8654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -8686,7 +8689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8731,12 +8734,12 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -8772,7 +8775,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -8804,7 +8807,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -8836,7 +8839,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -8868,7 +8871,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -8900,7 +8903,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -8932,7 +8935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -8964,7 +8967,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -8996,7 +8999,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -9028,7 +9031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -9060,7 +9063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -9092,7 +9095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -9124,7 +9127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -9156,7 +9159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -9188,7 +9191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -9252,7 +9255,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -9284,7 +9287,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -9316,7 +9319,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -9348,7 +9351,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -9380,7 +9383,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -9419,21 +9422,26 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD47339-9F2E-4E49-9410-2DB4FA8DAF88}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <f>0.4*0.05</f>
         <v>2.0000000000000004E-2</v>
@@ -9441,8 +9449,11 @@
       <c r="B2">
         <v>4.5600000000000002E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>4.5591E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>0.8*0.05</f>
         <v>4.0000000000000008E-2</v>
@@ -9450,8 +9461,11 @@
       <c r="B3">
         <v>4.1399999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>4.1406999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <f>1*0.05</f>
         <v>0.05</v>
@@ -9459,8 +9473,11 @@
       <c r="B4">
         <v>3.9399999999999998E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3.9418000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <f>1.2*0.05</f>
         <v>0.06</v>
@@ -9468,8 +9485,11 @@
       <c r="B5">
         <v>3.7499999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>3.7504000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <f>1.6*0.05</f>
         <v>8.0000000000000016E-2</v>
@@ -9477,14 +9497,20 @@
       <c r="B6">
         <v>3.39E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>3.3902000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <f>2*0.05</f>
         <v>0.1</v>
       </c>
       <c r="B7">
         <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.0606000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9498,9 +9524,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9508,7 +9534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <f>EXP(-0.1*SQRT(2))*0.5</f>
         <v>0.43406172269729243</v>
@@ -9517,7 +9543,7 @@
         <v>0.22138319683086599</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>1*0.5</f>
         <v>0.5</v>
@@ -9526,7 +9552,7 @@
         <v>0.193836689413803</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <f>EXP(0.1*SQRT(2))*0.5</f>
         <v>0.57595495508445449</v>
@@ -9546,9 +9572,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9556,7 +9582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <f>EXP(-0.1*SQRT(10))*0.07</f>
         <v>5.1022538987701718E-2</v>
@@ -9565,7 +9591,7 @@
         <v>5.2450313614407003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>1*0.07</f>
         <v>7.0000000000000007E-2</v>
@@ -9574,7 +9600,7 @@
         <v>4.6585753491306003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <f>EXP(0.1*SQRT(10))*0.07</f>
         <v>9.6035989137684394E-2</v>
@@ -9596,9 +9622,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9627,7 +9653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>4</v>
       </c>
@@ -9656,7 +9682,7 @@
         <v>0.1217</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>4.05</v>
       </c>
@@ -9685,7 +9711,7 @@
         <v>0.11940000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4.1500000000000004</v>
       </c>
@@ -9714,7 +9740,7 @@
         <v>0.1148</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4.25</v>
       </c>
@@ -9743,7 +9769,7 @@
         <v>0.11020000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4.3499999999999996</v>
       </c>
@@ -9772,7 +9798,7 @@
         <v>0.1056</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4.45</v>
       </c>
@@ -9801,7 +9827,7 @@
         <v>0.1075</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>4.55</v>
       </c>
@@ -9830,7 +9856,7 @@
         <v>0.10929999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>4.6500000000000004</v>
       </c>
@@ -9859,7 +9885,7 @@
         <v>0.1109</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>4.75</v>
       </c>
@@ -9888,7 +9914,7 @@
         <v>0.1124</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>4.8500000000000005</v>
       </c>
@@ -9917,7 +9943,7 @@
         <v>0.1138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>4.95</v>
       </c>
@@ -9946,7 +9972,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>5</v>
       </c>
@@ -9988,9 +10014,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10019,7 +10045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -10048,7 +10074,7 @@
         <v>0.29549999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3.1</v>
       </c>
@@ -10077,7 +10103,7 @@
         <v>0.2858</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3.2</v>
       </c>
@@ -10106,7 +10132,7 @@
         <v>0.27679999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3.3000000000000003</v>
       </c>
@@ -10135,7 +10161,7 @@
         <v>0.26829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3.4000000000000004</v>
       </c>
@@ -10164,7 +10190,7 @@
         <v>0.26040000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3.5000000000000004</v>
       </c>
@@ -10193,7 +10219,7 @@
         <v>0.25290000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3.5999999999999996</v>
       </c>
@@ -10222,7 +10248,7 @@
         <v>0.25169999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3.6999999999999997</v>
       </c>
@@ -10251,7 +10277,7 @@
         <v>0.25069999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3.8</v>
       </c>
@@ -10280,7 +10306,7 @@
         <v>0.24979999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3.9</v>
       </c>
@@ -10309,7 +10335,7 @@
         <v>0.24909999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10349,9 +10375,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10362,7 +10388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10373,7 +10399,7 @@
         <v>0.43173</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10384,7 +10410,7 @@
         <v>0.30212</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10395,7 +10421,7 @@
         <v>0.19869999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10406,7 +10432,7 @@
         <v>0.14935999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10417,7 +10443,7 @@
         <v>0.16977999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10428,7 +10454,7 @@
         <v>0.19700999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10452,9 +10478,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10465,7 +10491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10476,7 +10502,7 @@
         <v>0.40655000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10487,7 +10513,7 @@
         <v>0.28815000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10498,7 +10524,7 @@
         <v>0.19349</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10509,7 +10535,7 @@
         <v>0.14885999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10520,7 +10546,7 @@
         <v>0.16627</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10531,7 +10557,7 @@
         <v>0.18997</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10553,9 +10579,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10566,7 +10592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10577,7 +10603,7 @@
         <v>0.37372</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10588,7 +10614,7 @@
         <v>0.26822000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10599,7 +10625,7 @@
         <v>0.18373</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10610,7 +10636,7 @@
         <v>0.14358000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10621,7 +10647,7 @@
         <v>0.15745999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10632,7 +10658,7 @@
         <v>0.17724999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10654,9 +10680,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10667,7 +10693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10678,7 +10704,7 @@
         <v>0.29820999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10689,7 +10715,7 @@
         <v>0.2177</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10700,7 +10726,7 @@
         <v>0.15304000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10711,7 +10737,7 @@
         <v>0.12148</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10722,7 +10748,7 @@
         <v>0.13013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10733,7 +10759,7 @@
         <v>0.14380999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10755,9 +10781,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10768,7 +10794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10779,7 +10805,7 @@
         <v>0.22885</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10790,7 +10816,7 @@
         <v>0.16825000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10801,7 +10827,7 @@
         <v>0.11955</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10812,7 +10838,7 @@
         <v>9.5509999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10823,7 +10849,7 @@
         <v>0.10141</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10834,7 +10860,7 @@
         <v>0.11126</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10856,9 +10882,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -10900,7 +10926,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -10932,7 +10958,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -10964,7 +10990,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -10996,7 +11022,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -11028,7 +11054,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -11060,7 +11086,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -11092,7 +11118,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -11124,7 +11150,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -11156,7 +11182,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -11188,7 +11214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11220,7 +11246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -11252,7 +11278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -11284,7 +11310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -11316,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -11348,7 +11374,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -11380,7 +11406,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -11412,7 +11438,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -11444,7 +11470,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -11476,7 +11502,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -11508,7 +11534,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -11553,9 +11579,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -11566,7 +11592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>500</v>
       </c>
@@ -11577,7 +11603,7 @@
         <v>0.10552</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>750</v>
       </c>
@@ -11588,7 +11614,7 @@
         <v>7.7770000000000006E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -11599,7 +11625,7 @@
         <v>5.5489999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -11610,7 +11636,7 @@
         <v>4.4470000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -11621,7 +11647,7 @@
         <v>4.7079999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -11632,7 +11658,7 @@
         <v>5.1529999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -11656,9 +11682,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -11666,7 +11692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11674,7 +11700,7 @@
         <v>572.02432426999997</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>100</v>
       </c>
@@ -11682,7 +11708,7 @@
         <v>489.87873865</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>200</v>
       </c>
@@ -11690,7 +11716,7 @@
         <v>414.2388598</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>300</v>
       </c>
@@ -11698,7 +11724,7 @@
         <v>349.19489362000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>350</v>
       </c>
@@ -11706,7 +11732,7 @@
         <v>322.15532949999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>400</v>
       </c>
@@ -11714,7 +11740,7 @@
         <v>299.19489362000002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>500</v>
       </c>
@@ -11722,7 +11748,7 @@
         <v>264.2388598</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>600</v>
       </c>
@@ -11730,7 +11756,7 @@
         <v>239.87873865</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>700</v>
       </c>
@@ -11751,9 +11777,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -11761,7 +11787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11769,7 +11795,7 @@
         <v>580.55474930000003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>100</v>
       </c>
@@ -11777,7 +11803,7 @@
         <v>495.83602302000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>200</v>
       </c>
@@ -11785,7 +11811,7 @@
         <v>415.99302620999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>300</v>
       </c>
@@ -11793,7 +11819,7 @@
         <v>344.18593174</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>350</v>
       </c>
@@ -11801,7 +11827,7 @@
         <v>312.81611550999997</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>400</v>
       </c>
@@ -11809,7 +11835,7 @@
         <v>285.36037649000002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>500</v>
       </c>
@@ -11817,7 +11843,7 @@
         <v>243.03406385</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>600</v>
       </c>
@@ -11825,7 +11851,7 @@
         <v>214.53419274000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>700</v>
       </c>
@@ -11846,9 +11872,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -11856,7 +11882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11864,7 +11890,7 @@
         <v>569.44780020999997</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>100</v>
       </c>
@@ -11872,7 +11898,7 @@
         <v>481.51989931000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>200</v>
       </c>
@@ -11880,7 +11906,7 @@
         <v>397.02796374000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>300</v>
       </c>
@@ -11888,7 +11914,7 @@
         <v>318.22818044000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>350</v>
       </c>
@@ -11896,7 +11922,7 @@
         <v>282.24098647</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>400</v>
       </c>
@@ -11904,7 +11930,7 @@
         <v>249.61469442000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>500</v>
       </c>
@@ -11912,7 +11938,7 @@
         <v>198.0204885</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>600</v>
       </c>
@@ -11920,7 +11946,7 @@
         <v>165.13068946000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>700</v>
       </c>
@@ -11942,9 +11968,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -11986,7 +12012,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -12018,7 +12044,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -12050,7 +12076,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -12082,7 +12108,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -12114,7 +12140,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -12146,7 +12172,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -12178,7 +12204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -12210,7 +12236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -12242,7 +12268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -12274,7 +12300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -12306,7 +12332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -12338,7 +12364,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -12370,7 +12396,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -12402,7 +12428,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -12434,7 +12460,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -12466,7 +12492,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -12498,7 +12524,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -12530,7 +12556,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -12562,7 +12588,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -12594,7 +12620,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12639,9 +12665,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -12683,7 +12709,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -12715,7 +12741,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -12747,7 +12773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -12779,7 +12805,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -12811,7 +12837,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -12843,7 +12869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -12875,7 +12901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -12907,7 +12933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -12939,7 +12965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -12971,7 +12997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -13003,7 +13029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -13035,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -13067,7 +13093,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -13099,7 +13125,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -13131,7 +13157,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -13163,7 +13189,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -13195,7 +13221,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -13227,7 +13253,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -13259,7 +13285,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -13291,7 +13317,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -13336,9 +13362,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -13380,7 +13406,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -13412,7 +13438,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -13444,7 +13470,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -13476,7 +13502,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -13508,7 +13534,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -13540,7 +13566,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -13572,7 +13598,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -13604,7 +13630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -13636,7 +13662,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -13668,7 +13694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -13700,7 +13726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -13732,7 +13758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -13764,7 +13790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -13796,7 +13822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -13828,7 +13854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -13860,7 +13886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -13892,7 +13918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -13924,7 +13950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -13956,7 +13982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -13988,7 +14014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -14031,9 +14057,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -14075,7 +14101,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -14107,7 +14133,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -14139,7 +14165,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -14171,7 +14197,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -14203,7 +14229,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -14235,7 +14261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -14267,7 +14293,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -14299,7 +14325,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -14331,7 +14357,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -14363,7 +14389,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -14395,7 +14421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -14427,7 +14453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -14459,7 +14485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -14491,7 +14517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -14523,7 +14549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -14555,7 +14581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -14587,7 +14613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -14619,7 +14645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -14651,7 +14677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -14683,7 +14709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -14728,9 +14754,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -14772,7 +14798,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -14804,7 +14830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -14836,7 +14862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -14868,7 +14894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -14900,7 +14926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -14932,7 +14958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -14964,7 +14990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -14996,7 +15022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -15028,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -15060,7 +15086,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -15092,7 +15118,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -15124,7 +15150,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -15156,7 +15182,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -15188,7 +15214,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -15220,7 +15246,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -15252,7 +15278,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -15284,7 +15310,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -15316,7 +15342,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -15348,7 +15374,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -15380,7 +15406,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -15425,9 +15451,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -15469,7 +15495,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -15501,7 +15527,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -15533,7 +15559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -15565,7 +15591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -15597,7 +15623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -15629,7 +15655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -15661,7 +15687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -15693,7 +15719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -15725,7 +15751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -15757,7 +15783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -15789,7 +15815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -15821,7 +15847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -15853,7 +15879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -15885,7 +15911,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -15917,7 +15943,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -15949,7 +15975,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -15981,7 +16007,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -16013,7 +16039,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -16045,7 +16071,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -16077,7 +16103,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
